--- a/DataSet/Integration_DataSet/TL/TL_Data_Set_EU.xlsx
+++ b/DataSet/Integration_DataSet/TL/TL_Data_Set_EU.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\TL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92271E2-19EB-4B9B-A33E-3D7CF95F88CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BaseRate_Fields" sheetId="1" r:id="rId2"/>
-    <sheet name="FXRates_Fields" sheetId="3" r:id="rId3"/>
-    <sheet name="Calendar_Fields" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="BaseRate_Fields" sheetId="1" r:id="rId1"/>
+    <sheet name="FXRates_Fields" sheetId="3" r:id="rId2"/>
+    <sheet name="Calendar_Fields" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="940">
   <si>
     <t>rowid</t>
   </si>
@@ -115,24 +115,6 @@
     <t>INPUTJSON_TL_BASE02</t>
   </si>
   <si>
-    <t>TL_BASE_03</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_BASE03</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE03</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE03</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE03</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE03</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -199,45 +181,9 @@
     <t>6</t>
   </si>
   <si>
-    <t>TL_BASE_06</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_BASE06</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE06</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE06</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE06</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE06</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>TL_BASE_07</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_BASE07</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE07</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE07</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE07</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE07</t>
-  </si>
-  <si>
     <t>TL_FXRATES_02</t>
   </si>
   <si>
@@ -316,24 +262,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>TL_BASE_08</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_BASE08</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE08</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE08</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE08</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE08</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -367,27 +295,15 @@
     <t>11</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_BASERATE_SY_GROUP3_BASE11.csv</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_BASERATE_AS_GROUP4_BASE12.csv</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_BASERATE_LN_GROUP5_BASE13.csv</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_BASERATE_NY_GROUP6_BASE14.csv</t>
-  </si>
-  <si>
     <t>FundingDesk_1</t>
   </si>
   <si>
@@ -427,24 +343,15 @@
     <t>Actual_CustomCBAPush_Response_TL_BASE_02</t>
   </si>
   <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_03</t>
-  </si>
-  <si>
     <t>Actual_CustomCBAPush_Response_TL_BASE_04</t>
   </si>
   <si>
     <t>Actual_CustomCBAPush_Response_TL_BASE_05</t>
   </si>
   <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_06</t>
-  </si>
-  <si>
     <t>TL_CAL_01</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_BASERATE_LN_GROUP5_B03_01.csv,FINASTRA_CCB_BASERATE_LN_GROUP5_B03_02.csv,FINASTRA_CCB_BASERATE_LN_GROUP5_B03_03.csv</t>
-  </si>
-  <si>
     <t>InputCoppClarkFiles</t>
   </si>
   <si>
@@ -460,27 +367,6 @@
     <t>15</t>
   </si>
   <si>
-    <t>INPUTJSON_TL_BASE15</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE15</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE15</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE15</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE15</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_15</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_BASE15.csv</t>
-  </si>
-  <si>
     <t>FINASTRA_CCB_BASERATE_LN_GROUP5_BASE04.csv</t>
   </si>
   <si>
@@ -529,114 +415,24 @@
     <t>19</t>
   </si>
   <si>
-    <t>TL_BASE_11</t>
-  </si>
-  <si>
-    <t>TL_BASE_12</t>
-  </si>
-  <si>
-    <t>TL_BASE_13</t>
-  </si>
-  <si>
-    <t>TL_BASE_14</t>
-  </si>
-  <si>
-    <t>TL_BASE_15</t>
-  </si>
-  <si>
     <t>TL_BASE_19</t>
   </si>
   <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_11</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_12</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_13</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_14</t>
-  </si>
-  <si>
     <t>Actual_CustomCBAPush_Response_TL_BASE_19</t>
   </si>
   <si>
-    <t>Actual_ResponseMechanism_TL_BASE_11</t>
-  </si>
-  <si>
-    <t>Actual_ResponseMechanism_TL_BASE_12</t>
-  </si>
-  <si>
-    <t>Actual_ResponseMechanism_TL_BASE_13</t>
-  </si>
-  <si>
-    <t>Actual_ResponseMechanism_TL_BASE_14</t>
-  </si>
-  <si>
-    <t>Actual_ResponseMechanism_TL_BASE_15</t>
-  </si>
-  <si>
     <t>Actual_ResponseMechanism_TL_BASE_19</t>
   </si>
   <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE14</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE11</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE12</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE13</t>
-  </si>
-  <si>
     <t>EXPECTED_FFC_RESPONSE_TL_BASE19</t>
   </si>
   <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE11</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE12</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE13</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE14</t>
-  </si>
-  <si>
     <t>Expected_wsFinalLIQDestination_TL_BASE19</t>
   </si>
   <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE11</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE12</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE13</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE14</t>
-  </si>
-  <si>
     <t>ACTUAL_FFC_RESPONSE_TL_BASE19</t>
   </si>
   <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE11</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE12</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE13</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE14</t>
-  </si>
-  <si>
     <t>Actual_wsFinalLIQDestination_TL_BASE19</t>
   </si>
   <si>
@@ -1921,33 +1717,6 @@
     <t>Actual_ResponseMechanism_TL_BASE_30</t>
   </si>
   <si>
-    <t>TL_BASE_31</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_BASE31.csv</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_BASE31</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE31</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE31</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE31</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE31</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_31</t>
-  </si>
-  <si>
-    <t>Actual_ResponseMechanism_TL_BASE_31</t>
-  </si>
-  <si>
     <t>TL_CAL_20</t>
   </si>
   <si>
@@ -1996,51 +1765,12 @@
     <t>Actual_ResponseMechanism_TL_BASE_28</t>
   </si>
   <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_07</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_08</t>
-  </si>
-  <si>
     <t>Actual_CustomCBAPush_Response_TL_BASE_09</t>
   </si>
   <si>
-    <t>Actual_ResponseMechanism_TL_BASE_06</t>
-  </si>
-  <si>
-    <t>Actual_ResponseMechanism_TL_BASE_07</t>
-  </si>
-  <si>
-    <t>Actual_ResponseMechanism_TL_BASE_08</t>
-  </si>
-  <si>
     <t>Actual_ResponseMechanism_TL_BASE_09</t>
   </si>
   <si>
-    <t>Actual_ResponseMechanism_TL_BASE_03</t>
-  </si>
-  <si>
-    <t>TL_BASE_33</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_BASE33</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE33</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE33</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE33</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE33</t>
-  </si>
-  <si>
-    <t>Actual_ResponseMechanism_TL_BASE_33</t>
-  </si>
-  <si>
     <t>FINASTRA_CCB_FX_NY_FX31.csv</t>
   </si>
   <si>
@@ -2056,21 +1786,6 @@
     <t>FINASTRA_CCB_FX_NY_FX35.csv</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_BASEERROR.csv</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_BASEPASS.csv</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_33_1</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_33_2</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
@@ -2101,66 +1816,6 @@
     <t>Actual_ResponseMechanism_TL_BASE_40</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>TL_BASE_44</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_BASE44.csv</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_BASE44</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE44</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE44</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE44</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE44</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_44</t>
-  </si>
-  <si>
-    <t>Actual_ResponseMechanism_TL_BASE_44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>TL_BASE_45</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_BASE45.csv</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_BASE45</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE45</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE45</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE45</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE45</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_45</t>
-  </si>
-  <si>
-    <t>Actual_ResponseMechanism_TL_BASE_45</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
@@ -2530,69 +2185,6 @@
     <t>Actual_CustomCBAPush_Response_TL_CAL_14</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_BASERATE_SY_GROUP2_BASE06.txt</t>
-  </si>
-  <si>
-    <t>CCB_BASERATE_SY_GROUP1_BASE07.csv</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_BASERATE_LN_GROUP5_BASE08.csv</t>
-  </si>
-  <si>
-    <t>TL_BASE_16</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_BASE16.csv</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_BASE16</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE16</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE16</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE16</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE16</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_16</t>
-  </si>
-  <si>
-    <t>Actual_ResponseMechanism_TL_BASE_16</t>
-  </si>
-  <si>
-    <t>TL_BASE_34</t>
-  </si>
-  <si>
-    <t>finastra_ccb_baserate_sy_group1_base34.csv</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_BASE34</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE34</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE34</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE34</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE34</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_34</t>
-  </si>
-  <si>
-    <t>Actual_ResponseMechanism_TL_BASE_34</t>
-  </si>
-  <si>
     <t>TL_BASE_35</t>
   </si>
   <si>
@@ -2618,90 +2210,6 @@
   </si>
   <si>
     <t>Actual_ResponseMechanism_TL_BASE_35</t>
-  </si>
-  <si>
-    <t>TL_BASE_36</t>
-  </si>
-  <si>
-    <t>FINASTRA_BASERATE_SY_GROUP1_BASE36.csv</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_BASE36</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE36</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE36</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE36</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE36</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_36</t>
-  </si>
-  <si>
-    <t>Actual_ResponseMechanism_TL_BASE_36</t>
-  </si>
-  <si>
-    <t>TL_BASE_37</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_SY_GROUP1_BASE37.csv</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_BASE37</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE37</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE37</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE37</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE37</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_37</t>
-  </si>
-  <si>
-    <t>Actual_ResponseMechanism_TL_BASE_37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>TL_BASE_38</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_BASERATE_SY_GROUP99_BASE38.csv</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_BASE38</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE38</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE38</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE38</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE38</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_38</t>
-  </si>
-  <si>
-    <t>Actual_ResponseMechanism_TL_BASE_38</t>
   </si>
   <si>
     <t>TL_CAL_29</t>
@@ -2854,33 +2362,6 @@
     </r>
   </si>
   <si>
-    <t>TL_BASE_18</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_BASE18.csv</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_BASE18</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE18</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE18</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE18</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE18</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_18</t>
-  </si>
-  <si>
-    <t>Actual_ResponseMechanism_TL_BASE_18</t>
-  </si>
-  <si>
     <t>TL_CAL_12</t>
   </si>
   <si>
@@ -3139,117 +2620,6 @@
     <t>Holidays_Banks_20200127_1.xlsx,Holidays_Banks_20200127_2.xlsx,Holidays_Banks_20200127_1.csv,Holidays_Banks_20200127_2.csv,Holidays_Misc_20200127.xlsx</t>
   </si>
   <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_38_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_29_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_03_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_05_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_06_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_07_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_08_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_09_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_10_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_21_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_11_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_12_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_13_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_14_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_15_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_16_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_17_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_18_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_19_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_20_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_22_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_26_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_27_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_28_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_30_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_31_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_33_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_34_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_35_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_36_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_37_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_39_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_40_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_41_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_42_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_44_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_45_Files\</t>
-  </si>
-  <si>
     <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_11_Files\</t>
   </si>
   <si>
@@ -3476,13 +2846,73 @@
   </si>
   <si>
     <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_04_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_05_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_09_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_10_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_17_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_19_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_20_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_21_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_22_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_26_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_27_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_28_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_29_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_30_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_35_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_39_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_40_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_41_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_42_Files\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3584,7 +3014,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
@@ -3646,6 +3076,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -3656,109 +3092,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799860000610352"/>
+        <fgColor theme="4" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799860000610352"/>
+        <fgColor theme="5" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799860000610352"/>
+        <fgColor theme="6" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799860000610352"/>
+        <fgColor theme="7" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799860000610352"/>
+        <fgColor theme="8" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799860000610352"/>
+        <fgColor theme="9" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599810004234314"/>
+        <fgColor theme="4" tint="0.59978026673177287"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599810004234314"/>
+        <fgColor theme="5" tint="0.59978026673177287"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599810004234314"/>
+        <fgColor theme="6" tint="0.59978026673177287"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599810004234314"/>
+        <fgColor theme="7" tint="0.59978026673177287"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599810004234314"/>
+        <fgColor theme="8" tint="0.59978026673177287"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599810004234314"/>
+        <fgColor theme="9" tint="0.59978026673177287"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980008602142"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980008602142"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980008602142"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980008602142"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980008602142"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980008602142"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3868,6 +3304,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -3882,6 +3319,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -3890,22 +3328,25 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499799996614456"/>
+        <color theme="4" tint="0.49977111117893003"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399980008602142"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -3914,6 +3355,7 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3928,6 +3370,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3942,6 +3385,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -3952,6 +3396,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3966,6 +3411,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3978,6 +3424,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3988,24 +3435,11 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="62">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4048,182 +3482,87 @@
     <xf numFmtId="0" fontId="15" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="48">
-    <cellStyle name="Normal" xfId="0"/>
-    <cellStyle name="Percent" xfId="15"/>
-    <cellStyle name="Currency" xfId="16"/>
-    <cellStyle name="Currency [0]" xfId="17"/>
-    <cellStyle name="Comma" xfId="18"/>
-    <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="20% - Accent1" xfId="20"/>
-    <cellStyle name="20% - Accent2" xfId="21"/>
-    <cellStyle name="20% - Accent3" xfId="22"/>
-    <cellStyle name="20% - Accent4" xfId="23"/>
-    <cellStyle name="20% - Accent5" xfId="24"/>
-    <cellStyle name="20% - Accent6" xfId="25"/>
-    <cellStyle name="40% - Accent1" xfId="26"/>
-    <cellStyle name="40% - Accent2" xfId="27"/>
-    <cellStyle name="40% - Accent3" xfId="28"/>
-    <cellStyle name="40% - Accent4" xfId="29"/>
-    <cellStyle name="40% - Accent5" xfId="30"/>
-    <cellStyle name="40% - Accent6" xfId="31"/>
-    <cellStyle name="60% - Accent1" xfId="32"/>
-    <cellStyle name="60% - Accent2" xfId="33"/>
-    <cellStyle name="60% - Accent3" xfId="34"/>
-    <cellStyle name="60% - Accent4" xfId="35"/>
-    <cellStyle name="60% - Accent5" xfId="36"/>
-    <cellStyle name="60% - Accent6" xfId="37"/>
-    <cellStyle name="Accent1" xfId="38"/>
-    <cellStyle name="Accent2" xfId="39"/>
-    <cellStyle name="Accent3" xfId="40"/>
-    <cellStyle name="Accent4" xfId="41"/>
-    <cellStyle name="Accent5" xfId="42"/>
-    <cellStyle name="Accent6" xfId="43"/>
-    <cellStyle name="Bad" xfId="44"/>
-    <cellStyle name="Calculation" xfId="45"/>
-    <cellStyle name="Check Cell" xfId="46"/>
-    <cellStyle name="Explanatory Text" xfId="47"/>
-    <cellStyle name="Good" xfId="48"/>
-    <cellStyle name="Heading 1" xfId="49"/>
-    <cellStyle name="Heading 2" xfId="50"/>
-    <cellStyle name="Heading 3" xfId="51"/>
-    <cellStyle name="Heading 4" xfId="52"/>
-    <cellStyle name="Hyperlink" xfId="53"/>
-    <cellStyle name="Input" xfId="54"/>
-    <cellStyle name="Linked Cell" xfId="55"/>
-    <cellStyle name="Neutral" xfId="56"/>
-    <cellStyle name="Note" xfId="57"/>
-    <cellStyle name="Output" xfId="58"/>
-    <cellStyle name="Title" xfId="59"/>
-    <cellStyle name="Total" xfId="60"/>
-    <cellStyle name="Warning Text" xfId="61"/>
+    <cellStyle name="20% - Accent1" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Accent2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Accent3" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Accent4" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Accent5" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - Accent6" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="40% - Accent1" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="40% - Accent2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - Accent3" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="40% - Accent4" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - Accent5" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="40% - Accent6" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - Accent1" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="60% - Accent2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="60% - Accent3" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="60% - Accent4" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="60% - Accent5" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="60% - Accent6" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Accent1" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Accent2" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Accent3" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Accent4" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Accent5" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Accent6" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Bad" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Calculation" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Check Cell" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Explanatory Text" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Good" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Heading 1" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Heading 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Heading 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Heading 4" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Hyperlink" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Input" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Linked Cell" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Neutral" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Output" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Title" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Total" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Warning Text" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4531,35 +3870,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="BaseRate_Fields">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.71428571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.2857142857143" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.8571428571429" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.8571428571429" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7142857142857" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.1428571428571" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.2857142857143" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.8571428571429" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.1428571428571" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.7142857142857" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.1428571428571" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.7142857142857" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.7142857142857" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4567,7 +3906,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1011</v>
+        <v>838</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -4594,16 +3933,16 @@
         <v>8</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4611,13 +3950,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1012</v>
+        <v>839</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1129</v>
+        <v>919</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>28</v>
@@ -4629,7 +3968,7 @@
         <v>18</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>1129</v>
+        <v>919</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>21</v>
@@ -4638,13 +3977,13 @@
         <v>19</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -4652,13 +3991,13 @@
         <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1012</v>
+        <v>839</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1130</v>
+        <v>920</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>29</v>
@@ -4670,7 +4009,7 @@
         <v>25</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>1130</v>
+        <v>920</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>26</v>
@@ -4679,1639 +4018,815 @@
         <v>27</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>921</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>921</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="L4" s="5" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1012</v>
+        <v>839</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1131</v>
+        <v>922</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>1131</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="F11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15">
-      <c r="A6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="H11" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15">
-      <c r="A7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>1023</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15">
-      <c r="A8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>1024</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15">
-      <c r="A9" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15">
-      <c r="A10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>1026</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15">
-      <c r="A11" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>1027</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15">
-      <c r="A12" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="G12" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>1029</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="M12" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15">
-      <c r="A13" s="5" t="s">
-        <v>115</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>358</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>169</v>
+        <v>485</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1012</v>
+        <v>839</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>116</v>
+        <v>930</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>486</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>28</v>
+        <v>487</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>187</v>
+        <v>488</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>191</v>
+        <v>489</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>1030</v>
+        <v>930</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>196</v>
+        <v>490</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>201</v>
+        <v>491</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>175</v>
+        <v>492</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15">
-      <c r="A14" s="5" t="s">
-        <v>117</v>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>368</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>170</v>
+        <v>502</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1012</v>
+        <v>839</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>118</v>
+        <v>931</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>494</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>28</v>
+        <v>495</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>188</v>
+        <v>496</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>192</v>
+        <v>497</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>1031</v>
+        <v>931</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>197</v>
+        <v>498</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>202</v>
+        <v>499</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>176</v>
+        <v>500</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15">
-      <c r="A15" s="5" t="s">
-        <v>119</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>171</v>
+        <v>571</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1012</v>
+        <v>839</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>120</v>
+        <v>932</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>572</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>28</v>
+        <v>573</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>185</v>
+        <v>574</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>193</v>
+        <v>575</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>1032</v>
+        <v>932</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>198</v>
+        <v>576</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>203</v>
+        <v>577</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>177</v>
+        <v>578</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>144</v>
+        <v>388</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>172</v>
+        <v>813</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1012</v>
+        <v>839</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1033</v>
+        <v>933</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>151</v>
+        <v>814</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>145</v>
+        <v>815</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>146</v>
+        <v>816</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>147</v>
+        <v>817</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>1033</v>
+        <v>933</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>148</v>
+        <v>818</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>149</v>
+        <v>819</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>150</v>
+        <v>820</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15">
-      <c r="A17" s="5" t="s">
-        <v>331</v>
+        <v>821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>398</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>838</v>
+        <v>555</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1012</v>
+        <v>839</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E17" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>1034</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15">
-      <c r="A18" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>977</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>1012</v>
-      </c>
       <c r="D18" s="9" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>978</v>
+        <v>935</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>721</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>979</v>
+        <v>722</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>980</v>
+        <v>723</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>981</v>
+        <v>724</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>1035</v>
+        <v>935</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>982</v>
+        <v>725</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>983</v>
+        <v>726</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>984</v>
+        <v>727</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>351</v>
+        <v>822</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>924</v>
+        <v>823</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1012</v>
+        <v>839</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1036</v>
+        <v>936</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>925</v>
+        <v>824</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>926</v>
+        <v>825</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>927</v>
+        <v>826</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>928</v>
+        <v>827</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>1036</v>
+        <v>936</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>929</v>
+        <v>828</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>930</v>
+        <v>829</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>931</v>
+        <v>830</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15">
-      <c r="A20" s="5" t="s">
-        <v>167</v>
+        <v>831</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>587</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>173</v>
+        <v>588</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1012</v>
+        <v>839</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>205</v>
+        <v>937</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>589</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>211</v>
+        <v>590</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>189</v>
+        <v>591</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>194</v>
+        <v>592</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>1037</v>
+        <v>937</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>199</v>
+        <v>593</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>204</v>
+        <v>594</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>178</v>
+        <v>595</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15">
-      <c r="A21" s="5" t="s">
-        <v>208</v>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>597</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>218</v>
+        <v>598</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1012</v>
+        <v>839</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>209</v>
+        <v>938</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>599</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>210</v>
+        <v>600</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>212</v>
+        <v>601</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>213</v>
+        <v>602</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>1038</v>
+        <v>938</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>214</v>
+        <v>603</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>215</v>
+        <v>604</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>216</v>
+        <v>605</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15">
-      <c r="A22" s="5" t="s">
-        <v>228</v>
+        <v>606</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>608</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>219</v>
+        <v>609</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1012</v>
+        <v>839</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>220</v>
+        <v>939</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>610</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>221</v>
+        <v>611</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>222</v>
+        <v>612</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>223</v>
+        <v>613</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>1028</v>
+        <v>939</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>224</v>
+        <v>614</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>225</v>
+        <v>615</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>226</v>
+        <v>616</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="30">
-      <c r="A23" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>1039</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="45">
-      <c r="A24" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>1040</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="45">
-      <c r="A25" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>1041</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="30">
-      <c r="A26" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15">
-      <c r="A27" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>986</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>990</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>991</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15">
-      <c r="A28" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15">
-      <c r="A29" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15">
-      <c r="A30" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>1045</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15">
-      <c r="A31" s="11" t="s">
-        <v>678</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>1045</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15">
-      <c r="A32" s="11" t="s">
-        <v>605</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>1046</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15">
-      <c r="A33" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>857</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>859</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>862</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15">
-      <c r="A34" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>1048</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>870</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15">
-      <c r="A35" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>875</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>1049</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15">
-      <c r="A36" s="11" t="s">
-        <v>883</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>885</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>887</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>1019</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15">
-      <c r="A37" s="5" t="s">
-        <v>995</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>996</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>997</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>998</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>999</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>1000</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>1050</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>1003</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15">
-      <c r="A38" s="11" t="s">
-        <v>682</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>1051</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="15">
-      <c r="A39" s="11" t="s">
-        <v>712</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="15">
-      <c r="A40" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>1053</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="1:13" ht="15">
-      <c r="A41" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>1054</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15">
-      <c r="A42" s="11" t="s">
-        <v>702</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>1055</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>711</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="N22" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_01_Files\"/>
-    <hyperlink ref="C2" r:id="rId2" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\"/>
-    <hyperlink ref="D36" r:id="rId3" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_38_Files\"/>
-    <hyperlink ref="D27" r:id="rId4" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_29_Files\"/>
-    <hyperlink ref="C3:C42" r:id="rId5" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\"/>
-    <hyperlink ref="D3" r:id="rId6" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_02_Files\"/>
-    <hyperlink ref="D4" r:id="rId7" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_03_Files\"/>
-    <hyperlink ref="D5:D26" r:id="rId8" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_04_Files\"/>
-    <hyperlink ref="D28:D35" r:id="rId9" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_30_Files\"/>
-    <hyperlink ref="D37:D42" r:id="rId10" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_39_Files\"/>
-    <hyperlink ref="I2" r:id="rId11" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_01_Files\"/>
-    <hyperlink ref="I36" r:id="rId12" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_38_Files\"/>
-    <hyperlink ref="I27" r:id="rId13" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_29_Files\"/>
-    <hyperlink ref="I3" r:id="rId14" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_02_Files\"/>
-    <hyperlink ref="I4" r:id="rId15" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_03_Files\"/>
-    <hyperlink ref="I5:I26" r:id="rId16" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_04_Files\"/>
-    <hyperlink ref="I28:I35" r:id="rId17" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_30_Files\"/>
-    <hyperlink ref="I37:I42" r:id="rId18" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_39_Files\"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D16" r:id="rId3" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_29_Files\" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C3:C22" r:id="rId4" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D4:D15" r:id="rId6" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_04_Files\" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D17:D18" r:id="rId7" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_30_Files\" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D19:D22" r:id="rId8" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_39_Files\" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I2" r:id="rId9" xr:uid="{9B0A5397-9F63-4B35-9B6F-B0CFFA251EA5}"/>
+    <hyperlink ref="I16" r:id="rId10" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_29_Files\" xr:uid="{356D3599-3F7E-4D85-8144-363A615BB67B}"/>
+    <hyperlink ref="I3" r:id="rId11" xr:uid="{4B85E7EF-62C3-4588-A14B-C243EDF0CC83}"/>
+    <hyperlink ref="I4:I15" r:id="rId12" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_04_Files\" xr:uid="{354B421F-DC1C-4DE4-99F8-8EF671BB4EC5}"/>
+    <hyperlink ref="I17:I18" r:id="rId13" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_30_Files\" xr:uid="{A68704B6-E6A2-4DF5-8E27-E449C7B8C908}"/>
+    <hyperlink ref="I19:I22" r:id="rId14" display="\DataSet\Integration_DataSet\TL\BaseRates_GSFile\AU\TL_BASE_39_Files\" xr:uid="{9E2885D1-5084-47B1-9BA5-46EC3718211E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;P</oddHeader>
     <oddFooter>&amp;C&amp;F</oddFooter>
@@ -6320,36 +4835,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="FXRates_Fields"/>
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1428571428571" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.8571428571429" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.4285714285714" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.7142857142857" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5714285714286" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.7142857142857" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.2857142857143" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.1428571428571" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.8571428571429" customWidth="1"/>
-    <col min="11" max="11" width="40.7142857142857" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.1428571428571" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.2857142857143" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.1428571428571" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7142857142857" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.85546875" customWidth="1"/>
+    <col min="11" max="11" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6357,7 +4871,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1011</v>
+        <v>838</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -6384,1709 +4898,1709 @@
         <v>8</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1014</v>
+        <v>841</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>1014</v>
+        <v>841</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1102</v>
+        <v>892</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>1102</v>
+        <v>892</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1103</v>
+        <v>893</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>1103</v>
+        <v>893</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1104</v>
+        <v>894</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>1104</v>
+        <v>894</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1105</v>
+        <v>895</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>1105</v>
+        <v>895</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1106</v>
+        <v>896</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>1106</v>
+        <v>896</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>255</v>
+        <v>187</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1107</v>
+        <v>897</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>920</v>
+        <v>756</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>259</v>
+        <v>191</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>260</v>
+        <v>192</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>1107</v>
+        <v>897</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>262</v>
+        <v>194</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1108</v>
+        <v>898</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>921</v>
+        <v>757</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>267</v>
+        <v>199</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>268</v>
+        <v>200</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>1108</v>
+        <v>898</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>272</v>
+        <v>204</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>273</v>
+        <v>205</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1109</v>
+        <v>899</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>922</v>
+        <v>758</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>1109</v>
+        <v>899</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>280</v>
+        <v>212</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>281</v>
+        <v>213</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1110</v>
+        <v>900</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>923</v>
+        <v>759</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>282</v>
+        <v>214</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>283</v>
+        <v>215</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>284</v>
+        <v>216</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>1110</v>
+        <v>900</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>286</v>
+        <v>218</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>287</v>
+        <v>219</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>289</v>
+        <v>221</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1111</v>
+        <v>901</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1008</v>
+        <v>835</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>290</v>
+        <v>222</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>291</v>
+        <v>223</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>1111</v>
+        <v>901</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>293</v>
+        <v>225</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>294</v>
+        <v>226</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>295</v>
+        <v>227</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1112</v>
+        <v>902</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1009</v>
+        <v>836</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>1112</v>
+        <v>902</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>303</v>
+        <v>235</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O13" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="15">
-      <c r="A14" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>1113</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="K14" s="5" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1114</v>
+        <v>904</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>315</v>
+        <v>247</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>316</v>
+        <v>248</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>317</v>
+        <v>249</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>1114</v>
+        <v>904</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>320</v>
+        <v>252</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>322</v>
+        <v>254</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1115</v>
+        <v>905</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>323</v>
+        <v>255</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>324</v>
+        <v>256</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>325</v>
+        <v>257</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>326</v>
+        <v>258</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>1115</v>
+        <v>905</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>327</v>
+        <v>259</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>328</v>
+        <v>260</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>329</v>
+        <v>261</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1095</v>
+        <v>885</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>1095</v>
+        <v>885</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>339</v>
+        <v>271</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>340</v>
+        <v>272</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>341</v>
+        <v>273</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1098</v>
+        <v>888</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>343</v>
+        <v>275</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>346</v>
+        <v>278</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>1098</v>
+        <v>888</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>347</v>
+        <v>279</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>350</v>
+        <v>282</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>351</v>
+        <v>283</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>352</v>
+        <v>284</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1116</v>
+        <v>906</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>353</v>
+        <v>285</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>355</v>
+        <v>287</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>356</v>
+        <v>288</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>1116</v>
+        <v>906</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>357</v>
+        <v>289</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>359</v>
+        <v>291</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>360</v>
+        <v>292</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1117</v>
+        <v>907</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>362</v>
+        <v>294</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>363</v>
+        <v>295</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>364</v>
+        <v>296</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>365</v>
+        <v>297</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>1117</v>
+        <v>907</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>366</v>
+        <v>298</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>367</v>
+        <v>299</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>368</v>
+        <v>300</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>369</v>
+        <v>301</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>370</v>
+        <v>302</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1118</v>
+        <v>908</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>371</v>
+        <v>303</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>372</v>
+        <v>304</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>373</v>
+        <v>305</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>1118</v>
+        <v>908</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>377</v>
+        <v>309</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>378</v>
+        <v>310</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>379</v>
+        <v>311</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1119</v>
+        <v>909</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>381</v>
+        <v>313</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>382</v>
+        <v>314</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>383</v>
+        <v>315</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>1119</v>
+        <v>909</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>384</v>
+        <v>316</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>385</v>
+        <v>317</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>387</v>
+        <v>319</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>388</v>
+        <v>320</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1120</v>
+        <v>910</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>389</v>
+        <v>321</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>390</v>
+        <v>322</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>391</v>
+        <v>323</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>392</v>
+        <v>324</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>1120</v>
+        <v>910</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>393</v>
+        <v>325</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>394</v>
+        <v>326</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>395</v>
+        <v>327</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>396</v>
+        <v>328</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>397</v>
+        <v>329</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>398</v>
+        <v>330</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1121</v>
+        <v>911</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>399</v>
+        <v>331</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>400</v>
+        <v>332</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>401</v>
+        <v>333</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>402</v>
+        <v>334</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>1121</v>
+        <v>911</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>403</v>
+        <v>335</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>404</v>
+        <v>336</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>405</v>
+        <v>337</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>406</v>
+        <v>338</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>407</v>
+        <v>339</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>408</v>
+        <v>340</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1122</v>
+        <v>912</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>410</v>
+        <v>342</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>411</v>
+        <v>343</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>412</v>
+        <v>344</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>1122</v>
+        <v>912</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>413</v>
+        <v>345</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>414</v>
+        <v>346</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>415</v>
+        <v>347</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>416</v>
+        <v>348</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>418</v>
+        <v>350</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>1123</v>
+        <v>913</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>476</v>
+        <v>408</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>419</v>
+        <v>351</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>421</v>
+        <v>353</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>1123</v>
+        <v>913</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>422</v>
+        <v>354</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>423</v>
+        <v>355</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>424</v>
+        <v>356</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>425</v>
+        <v>357</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>1124</v>
+        <v>914</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>428</v>
+        <v>360</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>429</v>
+        <v>361</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>430</v>
+        <v>362</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>431</v>
+        <v>363</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>1124</v>
+        <v>914</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>432</v>
+        <v>364</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>433</v>
+        <v>365</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>435</v>
+        <v>367</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>436</v>
+        <v>368</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>437</v>
+        <v>369</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1125</v>
+        <v>915</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>438</v>
+        <v>370</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>439</v>
+        <v>371</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>440</v>
+        <v>372</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>441</v>
+        <v>373</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>1125</v>
+        <v>915</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>442</v>
+        <v>374</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>443</v>
+        <v>375</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>445</v>
+        <v>377</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>446</v>
+        <v>378</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>447</v>
+        <v>379</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1101</v>
+        <v>891</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>448</v>
+        <v>380</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>449</v>
+        <v>381</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>450</v>
+        <v>382</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>451</v>
+        <v>383</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>1101</v>
+        <v>891</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>452</v>
+        <v>384</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>453</v>
+        <v>385</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>454</v>
+        <v>386</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>455</v>
+        <v>387</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>456</v>
+        <v>388</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>457</v>
+        <v>389</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1100</v>
+        <v>890</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>458</v>
+        <v>390</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>459</v>
+        <v>391</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>460</v>
+        <v>392</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>461</v>
+        <v>393</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>1100</v>
+        <v>890</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>462</v>
+        <v>394</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>463</v>
+        <v>395</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>464</v>
+        <v>396</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>465</v>
+        <v>397</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>466</v>
+        <v>398</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>467</v>
+        <v>399</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1099</v>
+        <v>889</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>468</v>
+        <v>400</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>469</v>
+        <v>401</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>470</v>
+        <v>402</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>471</v>
+        <v>403</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>1099</v>
+        <v>889</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>472</v>
+        <v>404</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>474</v>
+        <v>406</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>475</v>
+        <v>407</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>578</v>
+        <v>510</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>579</v>
+        <v>511</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1097</v>
+        <v>887</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>672</v>
+        <v>582</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>580</v>
+        <v>512</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>581</v>
+        <v>513</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>582</v>
+        <v>514</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>1097</v>
+        <v>887</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>583</v>
+        <v>515</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>584</v>
+        <v>516</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>585</v>
+        <v>517</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>586</v>
+        <v>518</v>
       </c>
       <c r="N32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>587</v>
+        <v>519</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>588</v>
+        <v>520</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1096</v>
+        <v>886</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>673</v>
+        <v>583</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>589</v>
+        <v>521</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>590</v>
+        <v>522</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>591</v>
+        <v>523</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>1096</v>
+        <v>886</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>592</v>
+        <v>524</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>593</v>
+        <v>525</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>594</v>
+        <v>526</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>595</v>
+        <v>527</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>596</v>
+        <v>528</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>597</v>
+        <v>529</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>1094</v>
+        <v>884</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>674</v>
+        <v>584</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>598</v>
+        <v>530</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>599</v>
+        <v>531</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>600</v>
+        <v>532</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>1094</v>
+        <v>884</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>601</v>
+        <v>533</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>602</v>
+        <v>534</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>603</v>
+        <v>535</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>604</v>
+        <v>536</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>605</v>
+        <v>537</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>606</v>
+        <v>538</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>1126</v>
+        <v>916</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>675</v>
+        <v>585</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>607</v>
+        <v>539</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>608</v>
+        <v>540</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>609</v>
+        <v>541</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>1126</v>
+        <v>916</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>610</v>
+        <v>542</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>611</v>
+        <v>543</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>612</v>
+        <v>544</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>613</v>
+        <v>545</v>
       </c>
       <c r="N35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>614</v>
+        <v>546</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>615</v>
+        <v>547</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>1013</v>
+        <v>840</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>1127</v>
+        <v>917</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>676</v>
+        <v>586</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>616</v>
+        <v>548</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>617</v>
+        <v>549</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>618</v>
+        <v>550</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>1127</v>
+        <v>917</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>619</v>
+        <v>551</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>620</v>
+        <v>552</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>621</v>
+        <v>553</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>622</v>
+        <v>554</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>241</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D23:D31" r:id="rId1" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_22_Files\"/>
-    <hyperlink ref="D32:D34" r:id="rId2" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_31_Files\"/>
-    <hyperlink ref="C2" r:id="rId3" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\"/>
-    <hyperlink ref="D2" r:id="rId4" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_01_Files\"/>
-    <hyperlink ref="D34" r:id="rId5" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_33_Files\"/>
-    <hyperlink ref="D17" r:id="rId6" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_16_Files\"/>
-    <hyperlink ref="D33" r:id="rId7" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_32_Files\"/>
-    <hyperlink ref="D32" r:id="rId8" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_31_Files\"/>
-    <hyperlink ref="D18" r:id="rId9" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_17_Files\"/>
-    <hyperlink ref="D31" r:id="rId10" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_30_Files\"/>
-    <hyperlink ref="D30" r:id="rId11" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_29_Files\"/>
-    <hyperlink ref="D29" r:id="rId12" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_28_Files\"/>
-    <hyperlink ref="C3:C36" r:id="rId13" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\"/>
-    <hyperlink ref="D3" r:id="rId14" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_02_Files\"/>
-    <hyperlink ref="D4" r:id="rId15" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_03_Files\"/>
-    <hyperlink ref="D5:D16" r:id="rId16" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_04_Files\"/>
-    <hyperlink ref="D22:D28" r:id="rId17" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_21_Files\"/>
-    <hyperlink ref="D22" r:id="rId18" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_21_Files\"/>
-    <hyperlink ref="D35" r:id="rId19" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_34_Files\"/>
-    <hyperlink ref="D36" r:id="rId20" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_35_Files\"/>
-    <hyperlink ref="I23:I31" r:id="rId21" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_22_Files\"/>
-    <hyperlink ref="I32:I34" r:id="rId22" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_31_Files\"/>
-    <hyperlink ref="I2" r:id="rId23" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_01_Files\"/>
-    <hyperlink ref="I34" r:id="rId24" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_33_Files\"/>
-    <hyperlink ref="I17" r:id="rId25" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_16_Files\"/>
-    <hyperlink ref="I33" r:id="rId26" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_32_Files\"/>
-    <hyperlink ref="I32" r:id="rId27" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_31_Files\"/>
-    <hyperlink ref="I18" r:id="rId28" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_17_Files\"/>
-    <hyperlink ref="I31" r:id="rId29" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_30_Files\"/>
-    <hyperlink ref="I30" r:id="rId30" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_29_Files\"/>
-    <hyperlink ref="I29" r:id="rId31" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_28_Files\"/>
-    <hyperlink ref="I3" r:id="rId32" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_02_Files\"/>
-    <hyperlink ref="I4" r:id="rId33" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_03_Files\"/>
-    <hyperlink ref="I5:I16" r:id="rId34" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_04_Files\"/>
-    <hyperlink ref="I22:I28" r:id="rId35" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_21_Files\"/>
-    <hyperlink ref="I22" r:id="rId36" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_21_Files\"/>
-    <hyperlink ref="I35" r:id="rId37" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_34_Files\"/>
-    <hyperlink ref="I36" r:id="rId38" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_35_Files\"/>
+    <hyperlink ref="D23:D31" r:id="rId1" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_22_Files\" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D32:D34" r:id="rId2" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_31_Files\" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D34" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D17" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D33" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D32" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D18" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D31" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D30" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D29" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="C3:C36" r:id="rId13" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D3" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D4" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D5:D16" r:id="rId16" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_04_Files\" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D22:D28" r:id="rId17" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_21_Files\" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D22" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D35" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D36" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="I23:I31" r:id="rId21" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_22_Files\" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="I32:I34" r:id="rId22" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_31_Files\" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="I2" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="I34" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="I17" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="I33" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="I32" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="I18" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="I31" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="I30" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="I29" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="I3" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="I4" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="I5:I16" r:id="rId34" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_04_Files\" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="I22:I28" r:id="rId35" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_21_Files\" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="I22" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="I35" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="I36" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -8094,34 +6608,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Calendar_Fields">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="A13">
-      <selection pane="topLeft" activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.71428571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1428571428571" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.5714285714286" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="94" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7142857142857" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.2857142857143" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.2857142857143" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.2857142857143" style="1" customWidth="1"/>
-    <col min="9" max="9" width="75.7142857142857" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.2857142857143" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="75.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="60.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="60.28515625" customWidth="1"/>
     <col min="13" max="13" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8132,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -8144,7 +6658,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>477</v>
+        <v>409</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -8156,1313 +6670,1313 @@
         <v>8</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="30">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1015</v>
+        <v>842</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1016</v>
+        <v>843</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>1015</v>
+        <v>842</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="30">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>478</v>
+        <v>410</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1070</v>
+        <v>860</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="30">
-      <c r="A4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>1071</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30">
-      <c r="A5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>1072</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>814</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="30">
-      <c r="A6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>1073</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30">
-      <c r="A7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="30">
-      <c r="A8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>1060</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30">
-      <c r="A9" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="I11" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>1074</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="M11" s="5" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="C12" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30">
-      <c r="A10" s="5" t="s">
+      <c r="F12" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>772</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30">
-      <c r="A11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>933</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>934</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>935</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>936</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>937</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>938</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>939</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>940</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>941</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30">
-      <c r="A12" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>942</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>943</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>944</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>945</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>947</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>1076</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>949</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>950</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30">
-      <c r="A13" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>1077</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30">
-      <c r="A14" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="B14" s="5" t="s">
-        <v>492</v>
+        <v>424</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1058</v>
+        <v>848</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1059</v>
+        <v>849</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>493</v>
+        <v>425</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>494</v>
+        <v>426</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>495</v>
+        <v>427</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="9" t="s">
-        <v>1058</v>
+        <v>848</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>496</v>
+        <v>428</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>497</v>
+        <v>429</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>498</v>
+        <v>430</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="30">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>499</v>
+        <v>431</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>500</v>
+        <v>432</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1062</v>
+        <v>852</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1063</v>
+        <v>853</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>501</v>
+        <v>433</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>502</v>
+        <v>434</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>503</v>
+        <v>435</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="9" t="s">
-        <v>1062</v>
+        <v>852</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>504</v>
+        <v>436</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>505</v>
+        <v>437</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>506</v>
+        <v>438</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>507</v>
+        <v>439</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>508</v>
+        <v>440</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1062</v>
+        <v>852</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1064</v>
+        <v>854</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>509</v>
+        <v>441</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>510</v>
+        <v>442</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>511</v>
+        <v>443</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="9" t="s">
-        <v>1062</v>
+        <v>852</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>512</v>
+        <v>444</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>513</v>
+        <v>445</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>514</v>
+        <v>446</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="30">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>515</v>
+        <v>447</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1065</v>
+        <v>855</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1066</v>
+        <v>856</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>517</v>
+        <v>449</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>518</v>
+        <v>450</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>519</v>
+        <v>451</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>1065</v>
+        <v>855</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>520</v>
+        <v>452</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>521</v>
+        <v>453</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>522</v>
+        <v>454</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="30">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>523</v>
+        <v>455</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1067</v>
+        <v>857</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>1091</v>
+        <v>881</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>524</v>
+        <v>456</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>525</v>
+        <v>457</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="9" t="s">
-        <v>1067</v>
+        <v>857</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>527</v>
+        <v>459</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>528</v>
+        <v>460</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>529</v>
+        <v>461</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="30">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>530</v>
+        <v>462</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1068</v>
+        <v>858</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1093</v>
+        <v>883</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>531</v>
+        <v>463</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>532</v>
+        <v>464</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>533</v>
+        <v>465</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="9" t="s">
-        <v>1068</v>
+        <v>858</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>534</v>
+        <v>466</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>535</v>
+        <v>467</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>536</v>
+        <v>468</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="30">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>641</v>
+        <v>564</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1069</v>
+        <v>859</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>733</v>
+        <v>618</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>642</v>
+        <v>565</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>643</v>
+        <v>566</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>644</v>
+        <v>567</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="9" t="s">
-        <v>1069</v>
+        <v>859</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>645</v>
+        <v>568</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>646</v>
+        <v>569</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>647</v>
+        <v>570</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="30">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>571</v>
+        <v>503</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1078</v>
+        <v>868</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>733</v>
+        <v>618</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>572</v>
+        <v>504</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>573</v>
+        <v>505</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>574</v>
+        <v>506</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="9" t="s">
-        <v>1078</v>
+        <v>868</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>575</v>
+        <v>507</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>576</v>
+        <v>508</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>577</v>
+        <v>509</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="30">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>969</v>
+        <v>796</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1079</v>
+        <v>869</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1092</v>
+        <v>882</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>970</v>
+        <v>797</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>971</v>
+        <v>798</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>972</v>
+        <v>799</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>973</v>
+        <v>800</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>1079</v>
+        <v>869</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>974</v>
+        <v>801</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>975</v>
+        <v>802</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>976</v>
+        <v>803</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="30">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>773</v>
+        <v>658</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1080</v>
+        <v>870</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1007</v>
+        <v>834</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>774</v>
+        <v>659</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>775</v>
+        <v>660</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>776</v>
+        <v>661</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>777</v>
+        <v>662</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>1080</v>
+        <v>870</v>
       </c>
       <c r="J23" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="C29" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="30">
-      <c r="A24" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="G29" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="I29" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="K29" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="L29" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="M29" s="5" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>1081</v>
-      </c>
-      <c r="J24" s="5" t="s">
+      <c r="C30" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="30">
-      <c r="A25" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="I30" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="K30" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="L30" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>1082</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="30">
-      <c r="A26" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>895</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>896</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>898</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>900</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="30">
-      <c r="A27" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>902</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>904</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>907</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>1084</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>908</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="30">
-      <c r="A28" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>911</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>913</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>914</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>915</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>1085</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>917</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>918</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>919</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="30">
-      <c r="A29" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>951</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>952</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>954</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>955</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>956</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>1086</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>958</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="30">
-      <c r="A30" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>960</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>961</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>962</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>963</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>964</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>965</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>1087</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>966</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>967</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>968</v>
-      </c>
       <c r="M30" s="5" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="30">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>614</v>
+        <v>546</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>817</v>
+        <v>702</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1088</v>
+        <v>878</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>825</v>
+        <v>710</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>818</v>
+        <v>703</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>819</v>
+        <v>704</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>820</v>
+        <v>705</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>821</v>
+        <v>706</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>1088</v>
+        <v>878</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>822</v>
+        <v>707</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>823</v>
+        <v>708</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>824</v>
+        <v>709</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="30">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>537</v>
+        <v>469</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>538</v>
+        <v>470</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1089</v>
+        <v>879</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>734</v>
+        <v>619</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>539</v>
+        <v>471</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>540</v>
+        <v>472</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>541</v>
+        <v>473</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="9" t="s">
-        <v>1089</v>
+        <v>879</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>542</v>
+        <v>474</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>543</v>
+        <v>475</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>544</v>
+        <v>476</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="30">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>545</v>
+        <v>477</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>546</v>
+        <v>478</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1090</v>
+        <v>880</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>735</v>
+        <v>620</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>547</v>
+        <v>479</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>548</v>
+        <v>480</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>549</v>
+        <v>481</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="9" t="s">
-        <v>1090</v>
+        <v>880</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>550</v>
+        <v>482</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>551</v>
+        <v>483</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>552</v>
+        <v>484</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>552</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_01_Files\"/>
-    <hyperlink ref="C3:C6" r:id="rId2" display="\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_02_Files\"/>
-    <hyperlink ref="I2" r:id="rId3" display="\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_01_Files\"/>
-    <hyperlink ref="I3:I6" r:id="rId4" display="\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_02_Files\"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C3:C6" r:id="rId2" display="\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_02_Files\" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="I2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="I3:I6" r:id="rId4" display="\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_02_Files\" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;P</oddHeader>
     <oddFooter>&amp;C&amp;F</oddFooter>
@@ -9471,17 +7985,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -9489,7 +8003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -9500,7 +8014,7 @@
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;P</oddHeader>
     <oddFooter>&amp;C&amp;F</oddFooter>

--- a/DataSet/Integration_DataSet/TL/TL_Data_Set_EU.xlsx
+++ b/DataSet/Integration_DataSet/TL/TL_Data_Set_EU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\TL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92271E2-19EB-4B9B-A33E-3D7CF95F88CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C69E9E0-2820-442A-8703-C350A2084D82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseRate_Fields" sheetId="1" r:id="rId1"/>
@@ -331,9 +331,6 @@
     <t>ACTUAL_FFC_RESPONSE_TL_FXRATES01</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_FX_NY_FX01.csv</t>
-  </si>
-  <si>
     <t>Actual_CustomCBAPush_Response</t>
   </si>
   <si>
@@ -544,9 +541,6 @@
     <t>Actual_ResponseMechanism_TL_FXRATES_01</t>
   </si>
   <si>
-    <t>AUD</t>
-  </si>
-  <si>
     <t>FINASTRA_CCB_FX_AS_FX02.csv</t>
   </si>
   <si>
@@ -565,27 +559,18 @@
     <t>Actual_ResponseMechanism_TL_FXRATES_03</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_FX_NY_FX04_1.csv,FINASTRA_CCB_FX_NY_FX04_2.csv</t>
-  </si>
-  <si>
     <t>Actual_CustomCBAPush_Response_TL_FX_04</t>
   </si>
   <si>
     <t>Actual_ResponseMechanism_TL_FXRATES_04</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_FX_NY_FX05_1.csv,FINASTRA_CCB_FX_NY_FX05_2.csv</t>
-  </si>
-  <si>
     <t>Actual_CustomCBAPush_Response_TL_FX_05</t>
   </si>
   <si>
     <t>Actual_ResponseMechanism_TL_FXRATES_05</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_FX_NY_FX06.csv</t>
-  </si>
-  <si>
     <t>Actual_CustomCBAPush_Response_TL_FX_06</t>
   </si>
   <si>
@@ -763,9 +748,6 @@
     <t>TL_FXRATES_14</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_FX_NY_FX14.csv</t>
-  </si>
-  <si>
     <t>INPUT_TL_FXRATES14</t>
   </si>
   <si>
@@ -790,9 +772,6 @@
     <t>TL_FXRATES_15</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_FX_NY_FX15.csv</t>
-  </si>
-  <si>
     <t>INPUT_TL_FXRATES15</t>
   </si>
   <si>
@@ -820,9 +799,6 @@
     <t>TL_FXRATES_16</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_FX_NY_FX16.csv</t>
-  </si>
-  <si>
     <t>INPUT_TL_FXRATES16</t>
   </si>
   <si>
@@ -850,9 +826,6 @@
     <t>TL_FXRATES_17</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_FX_NY_FX17.csv</t>
-  </si>
-  <si>
     <t>INPUT_TL_FXRATES17</t>
   </si>
   <si>
@@ -880,9 +853,6 @@
     <t>TL_FXRATES_18</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_FX_NY_FX18.csv</t>
-  </si>
-  <si>
     <t>INPUT_TL_FXRATES18</t>
   </si>
   <si>
@@ -907,9 +877,6 @@
     <t>TL_FXRATES_19</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_FX_NY_FX19.csv</t>
-  </si>
-  <si>
     <t>INPUT_TL_FXRATES19</t>
   </si>
   <si>
@@ -934,9 +901,6 @@
     <t>TL_FXRATES_20</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_FX_NY_FX20.csv</t>
-  </si>
-  <si>
     <t>INPUT_TL_FXRATES20</t>
   </si>
   <si>
@@ -961,9 +925,6 @@
     <t>TL_FXRATES_21</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_FX_NY_FX21.csv</t>
-  </si>
-  <si>
     <t>INPUT_TL_FXRATES21</t>
   </si>
   <si>
@@ -988,9 +949,6 @@
     <t>TL_FXRATES_22</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_FX_NY_FX22.csv</t>
-  </si>
-  <si>
     <t>INPUT_TL_FXRATES22</t>
   </si>
   <si>
@@ -1018,9 +976,6 @@
     <t>TL_FXRATES_23</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_FX_NY_FX23.csv</t>
-  </si>
-  <si>
     <t>INPUT_TL_FXRATES23</t>
   </si>
   <si>
@@ -1048,9 +1003,6 @@
     <t>TL_FXRATES_24</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_FX_NY_FX24.csv</t>
-  </si>
-  <si>
     <t>INPUT_TL_FXRATES24</t>
   </si>
   <si>
@@ -1105,9 +1057,6 @@
     <t>TL_FXRATES_26</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_FX_NY_FX26.csv</t>
-  </si>
-  <si>
     <t>INPUT_TL_FXRATES26</t>
   </si>
   <si>
@@ -1135,9 +1084,6 @@
     <t>TL_FXRATES_27</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_FX_NY_FX27.csv</t>
-  </si>
-  <si>
     <t>INPUT_TL_FXRATES27</t>
   </si>
   <si>
@@ -1165,9 +1111,6 @@
     <t>TL_FXRATES_28</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_FX_NY_FX28.csv</t>
-  </si>
-  <si>
     <t>INPUT_TL_FXRATES28</t>
   </si>
   <si>
@@ -1195,9 +1138,6 @@
     <t>TL_FXRATES_29</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_FX_NY_FX29.csv</t>
-  </si>
-  <si>
     <t>INPUT_TL_FXRATES29</t>
   </si>
   <si>
@@ -1225,9 +1165,6 @@
     <t>TL_FXRATES_30</t>
   </si>
   <si>
-    <t>FINASTRA_CCB_FX_NY_FX30.csv</t>
-  </si>
-  <si>
     <t>INPUT_TL_FXRATES30</t>
   </si>
   <si>
@@ -1769,21 +1706,6 @@
   </si>
   <si>
     <t>Actual_ResponseMechanism_TL_BASE_09</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_FX_NY_FX31.csv</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_FX_NY_FX32.csv</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_FX_NY_FX33.csv</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_FX_NY_FX34.csv</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_FX_NY_FX35.csv</t>
   </si>
   <si>
     <t>40</t>
@@ -2319,6 +2241,555 @@
     <t>finastra_ccb_fx_ny_fx08.csv</t>
   </si>
   <si>
+    <t>TL_CAL_12</t>
+  </si>
+  <si>
+    <t>Holidays_Banks_20190112_1.xls,Holidays_Banks_20190112_2.xls,Holidays_Banks_20200112_1.csv,Holidays_Banks_20200112_2.csv,Holidays_Misc_20190112.xls</t>
+  </si>
+  <si>
+    <t>INPUTJSON_TL_CAL12</t>
+  </si>
+  <si>
+    <t>EXPECTED_FFC_RESPONSE_TL_CAL12</t>
+  </si>
+  <si>
+    <t>Expected_wsFinalLIQDestination_TL_CAL12</t>
+  </si>
+  <si>
+    <t>Expected_CustomCBAPush_Response_TL_CAL_12</t>
+  </si>
+  <si>
+    <t>ACTUAL_FFC_RESPONSE_TL_CAL12</t>
+  </si>
+  <si>
+    <t>Actual_wsFinalLIQDestination_TL_CAL12</t>
+  </si>
+  <si>
+    <t>Actual_CustomCBAPush_Response_TL_CAL_12</t>
+  </si>
+  <si>
+    <t>TL_CAL_13</t>
+  </si>
+  <si>
+    <t>Holidays_Banks_20190113_1.xls,Holidays_Banks_20190113_2.xls,Holidays_Banks_20200113_1.csv,Holidays_Banks_20200113_2.csv,Holidays_Misc_20190113.xls</t>
+  </si>
+  <si>
+    <t>INPUTJSON_TL_CAL13</t>
+  </si>
+  <si>
+    <t>EXPECTED_FFC_RESPONSE_TL_CAL13</t>
+  </si>
+  <si>
+    <t>Expected_wsFinalLIQDestination_TL_CAL13</t>
+  </si>
+  <si>
+    <t>Expected_CustomCBAPush_Response_TL_CAL_13</t>
+  </si>
+  <si>
+    <t>ACTUAL_FFC_RESPONSE_TL_CAL13</t>
+  </si>
+  <si>
+    <t>Actual_wsFinalLIQDestination_TL_CAL13</t>
+  </si>
+  <si>
+    <t>Actual_CustomCBAPush_Response_TL_CAL_13</t>
+  </si>
+  <si>
+    <t>TL_CAL_32</t>
+  </si>
+  <si>
+    <t>Holidays_Banks_20190132_1.xls,Holidays_Banks_20190132_2.xls,Holidays_Banks_20200132_1.csv,Holidays_Banks_20200132_2.csv,Holidays_Misc_20190132.xls</t>
+  </si>
+  <si>
+    <t>INPUTJSON_TL_CAL32</t>
+  </si>
+  <si>
+    <t>EXPECTED_FFC_RESPONSE_TL_CAL32</t>
+  </si>
+  <si>
+    <t>Expected_wsFinalLIQDestination_TL_CAL32</t>
+  </si>
+  <si>
+    <t>Expected_CustomCBAPush_Response_TL_CAL_32</t>
+  </si>
+  <si>
+    <t>ACTUAL_FFC_RESPONSE_TL_CAL32</t>
+  </si>
+  <si>
+    <t>Actual_wsFinalLIQDestination_TL_CAL32</t>
+  </si>
+  <si>
+    <t>Actual_CustomCBAPush_Response_TL_CAL_32</t>
+  </si>
+  <si>
+    <t>TL_CAL_33</t>
+  </si>
+  <si>
+    <t>Holidays_Banks_20190133_1.xls,Holidays_Banks_20190133_2.xls,Holidays_Banks_20200133_1.csv,Holidays_Banks_20200133_2.csv,Holidays_Misc_20190133.xls</t>
+  </si>
+  <si>
+    <t>INPUTJSON_TL_CAL33</t>
+  </si>
+  <si>
+    <t>EXPECTED_FFC_RESPONSE_TL_CAL33</t>
+  </si>
+  <si>
+    <t>Expected_wsFinalLIQDestination_TL_CAL33</t>
+  </si>
+  <si>
+    <t>Expected_CustomCBAPush_Response_TL_CAL_33</t>
+  </si>
+  <si>
+    <t>ACTUAL_FFC_RESPONSE_TL_CAL33</t>
+  </si>
+  <si>
+    <t>Actual_wsFinalLIQDestination_TL_CAL33</t>
+  </si>
+  <si>
+    <t>Actual_CustomCBAPush_Response_TL_CAL_33</t>
+  </si>
+  <si>
+    <t>TL_CAL_25</t>
+  </si>
+  <si>
+    <t>INPUTJSON_TL_CAL25</t>
+  </si>
+  <si>
+    <t>EXPECTED_FFC_RESPONSE_TL_CAL25</t>
+  </si>
+  <si>
+    <t>Expected_wsFinalLIQDestination_TL_CAL25</t>
+  </si>
+  <si>
+    <t>Expected_CustomCBAPush_Response_TL_CAL_25</t>
+  </si>
+  <si>
+    <t>ACTUAL_FFC_RESPONSE_TL_CAL25</t>
+  </si>
+  <si>
+    <t>Actual_wsFinalLIQDestination_TL_CAL25</t>
+  </si>
+  <si>
+    <t>Actual_CustomCBAPush_Response_TL_CAL_25</t>
+  </si>
+  <si>
+    <t>TL_BASE_17</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_BASE17.csv</t>
+  </si>
+  <si>
+    <t>INPUTJSON_TL_BASE17</t>
+  </si>
+  <si>
+    <t>EXPECTED_FFC_RESPONSE_TL_BASE17</t>
+  </si>
+  <si>
+    <t>Expected_wsFinalLIQDestination_TL_BASE17</t>
+  </si>
+  <si>
+    <t>ACTUAL_FFC_RESPONSE_TL_BASE17</t>
+  </si>
+  <si>
+    <t>Actual_wsFinalLIQDestination_TL_BASE17</t>
+  </si>
+  <si>
+    <t>Actual_CustomCBAPush_Response_TL_BASE_17</t>
+  </si>
+  <si>
+    <t>Actual_ResponseMechanism_TL_BASE_17</t>
+  </si>
+  <si>
+    <t>TL_BASE_29</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_BASE29.csv</t>
+  </si>
+  <si>
+    <t>INPUTJSON_TL_BASE29</t>
+  </si>
+  <si>
+    <t>EXPECTED_FFC_RESPONSE_TL_BASE29</t>
+  </si>
+  <si>
+    <t>Expected_wsFinalLIQDestination_TL_BASE29</t>
+  </si>
+  <si>
+    <t>ACTUAL_FFC_RESPONSE_TL_BASE29</t>
+  </si>
+  <si>
+    <t>Actual_wsFinalLIQDestination_TL_BASE29</t>
+  </si>
+  <si>
+    <t>Actual_CustomCBAPush_Response_TL_BASE_29</t>
+  </si>
+  <si>
+    <t>Actual_ResponseMechanism_TL_BASE_29</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>TL_BASE_39</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_BASE39.csv</t>
+  </si>
+  <si>
+    <t>INPUTJSON_TL_BASE39</t>
+  </si>
+  <si>
+    <t>EXPECTED_FFC_RESPONSE_TL_BASE39</t>
+  </si>
+  <si>
+    <t>Expected_wsFinalLIQDestination_TL_BASE39</t>
+  </si>
+  <si>
+    <t>ACTUAL_FFC_RESPONSE_TL_BASE39</t>
+  </si>
+  <si>
+    <t>Actual_wsFinalLIQDestination_TL_BASE39</t>
+  </si>
+  <si>
+    <t>Actual_CustomCBAPush_Response_TL_BASE_39</t>
+  </si>
+  <si>
+    <t>Actual_ResponseMechanism_TL_BASE_39</t>
+  </si>
+  <si>
+    <t>Log_FileName</t>
+  </si>
+  <si>
+    <t>fxRate.log</t>
+  </si>
+  <si>
+    <t>Holidays_Banks_20190126_1.xls,Holidays_Banks_20190126_2.xls,Holidays_Banks_20190126_1.csv,Holidays_Banks_20190126_2.csv,Holidays_Misc_20190126.xls</t>
+  </si>
+  <si>
+    <t>TemplateFilePath</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_01_Files\</t>
+  </si>
+  <si>
+    <t>Holidays_Banks_20200123_1.xlsx,Holidays_Banks_20200123_2.xlsx,Holidays_Banks_20200123_1.csv,Holidays_Banks_20200123_2.csv,Holidays_Misc_20200123.xlsx</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_08_Files\</t>
+  </si>
+  <si>
+    <t>Holidays_Banks_20200127_1.xlsx,Holidays_Banks_20200127_2.xlsx,Holidays_Banks_20200127_1.csv,Holidays_Banks_20200127_2.csv,Holidays_Misc_20200127.xlsx</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_11_Files\</t>
+  </si>
+  <si>
+    <t>Holidays_Banks_20200226_1.csv,Holidays_Banks_20200226_1.xlsx,Holidays_Banks_20200226_2.csv,Holidays_Banks_20200226_2.xlsx,Holidays_Misc_20200226.xlsx</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_15_Files\</t>
+  </si>
+  <si>
+    <t>Holidays_Banks_20200302_1.csv,Holidays_Banks_20200302_1.xlsx,Holidays_Banks_20200302_2.csv,Holidays_Banks_20200302_2.xlsx,Holidays_Misc_20200302.xlsx</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_09_Files\</t>
+  </si>
+  <si>
+    <t>Holidays_Banks_20200306_1.csv,Holidays_Banks_20200306_1.xlsx,Holidays_Banks_20200306_2.csv,Holidays_Banks_20200306_2.xlsx,Holidays_Misc_20200306.xlsx</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_16_Files\</t>
+  </si>
+  <si>
+    <t>Holidays_Banks_20200310_1.csv,Holidays_Banks_20200310_1.xlsx,Holidays_Banks_20200310_2.csv,Holidays_Banks_20200310_2.xlsx,Holidays_Misc_20200310.xlsx</t>
+  </si>
+  <si>
+    <t>Holidays_Banks_20200311_1.csv,Holidays_Banks_20200311_1.xlsx,Holidays_Banks_20200311_2.csv,Holidays_Banks_20200311_2.xlsx,Holidays_Misc_20200311.xlsx</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_17_Files\</t>
+  </si>
+  <si>
+    <t>Holidays_Banks_20200517_1.csv,Holidays_Banks_20200517_1.xlsx,Holidays_Banks_20200517_2.csv,Holidays_Banks_20200517_2.xlsx,Holidays_Misc_20200517.xlsx</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_18_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_19_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_20_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_02_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_03_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_04_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_07_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_10_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_12_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_13_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_14_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_21_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_25_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_26_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_27_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_28_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_29_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_30_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_31_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_32_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_33_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_35_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_36_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_37_Files\</t>
+  </si>
+  <si>
+    <t>Holidays_Banks_20200318_1.csv,Holidays_Banks_20200318_1.xlsx,Holidays_Banks_20200318_2.csv,Holidays_Banks_20200318_2.xlsx,Holidays_Misc_20200318.xlsx</t>
+  </si>
+  <si>
+    <t>Holidays_Banks_20190125_2.xls,Holidays_Banks_20200125_1.csv,Holidays_Banks_20200125_2.csv,Holidays_Misc_20190125.xls</t>
+  </si>
+  <si>
+    <t>Holidays_Banks_20200119_1.csv,Holidays_Banks_20200119_1.xlsx,Holidays_Banks_20200119_2.csv,Holidays_Banks_20200119_2.xlsx,Holidays_Misc_20200119.xlsx</t>
+  </si>
+  <si>
+    <t>ATM BILAT AUD108.6M 29JUN15</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_01_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_02_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_04_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_05_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_09_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_10_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_17_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_19_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_20_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_21_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_22_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_26_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_27_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_28_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_29_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_30_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_35_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_39_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_40_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_41_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_42_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_01_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_02_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_03_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_04_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_05_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_06_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_07_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_08_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_09_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_10_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_11_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_12_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_13_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_14_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_15_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_16_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_17_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_18_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_19_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_20_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_21_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_22_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_23_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_24_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_25_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_26_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_27_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_28_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_29_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_30_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_31_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_32_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_33_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_34_Files\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_35_Files\</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX28.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX01.csv</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX04_1.csv,FINASTRA_CCB_FX_SY_FX04_2.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX05_1.csv,FINASTRA_CCB_FX_SY_FX05_2.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX06.csv</t>
+  </si>
+  <si>
     <r>
       <t>FINASTRA_CCB_</t>
     </r>
@@ -2338,7 +2809,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>_NY_FX09.csv</t>
+      <t>_SY_FX09.csv</t>
     </r>
   </si>
   <si>
@@ -2358,548 +2829,77 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>_CCB_FX_NY_FX10.csv</t>
+      <t>_CCB_FX_SY_FX10.csv</t>
     </r>
   </si>
   <si>
-    <t>TL_CAL_12</t>
-  </si>
-  <si>
-    <t>Holidays_Banks_20190112_1.xls,Holidays_Banks_20190112_2.xls,Holidays_Banks_20200112_1.csv,Holidays_Banks_20200112_2.csv,Holidays_Misc_20190112.xls</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_CAL12</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_CAL12</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_CAL12</t>
-  </si>
-  <si>
-    <t>Expected_CustomCBAPush_Response_TL_CAL_12</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_CAL12</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_CAL12</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_CAL_12</t>
-  </si>
-  <si>
-    <t>TL_CAL_13</t>
-  </si>
-  <si>
-    <t>Holidays_Banks_20190113_1.xls,Holidays_Banks_20190113_2.xls,Holidays_Banks_20200113_1.csv,Holidays_Banks_20200113_2.csv,Holidays_Misc_20190113.xls</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_CAL13</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_CAL13</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_CAL13</t>
-  </si>
-  <si>
-    <t>Expected_CustomCBAPush_Response_TL_CAL_13</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_CAL13</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_CAL13</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_CAL_13</t>
-  </si>
-  <si>
-    <t>TL_CAL_32</t>
-  </si>
-  <si>
-    <t>Holidays_Banks_20190132_1.xls,Holidays_Banks_20190132_2.xls,Holidays_Banks_20200132_1.csv,Holidays_Banks_20200132_2.csv,Holidays_Misc_20190132.xls</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_CAL32</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_CAL32</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_CAL32</t>
-  </si>
-  <si>
-    <t>Expected_CustomCBAPush_Response_TL_CAL_32</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_CAL32</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_CAL32</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_CAL_32</t>
-  </si>
-  <si>
-    <t>TL_CAL_33</t>
-  </si>
-  <si>
-    <t>Holidays_Banks_20190133_1.xls,Holidays_Banks_20190133_2.xls,Holidays_Banks_20200133_1.csv,Holidays_Banks_20200133_2.csv,Holidays_Misc_20190133.xls</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_CAL33</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_CAL33</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_CAL33</t>
-  </si>
-  <si>
-    <t>Expected_CustomCBAPush_Response_TL_CAL_33</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_CAL33</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_CAL33</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_CAL_33</t>
-  </si>
-  <si>
-    <t>TL_CAL_25</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_CAL25</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_CAL25</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_CAL25</t>
-  </si>
-  <si>
-    <t>Expected_CustomCBAPush_Response_TL_CAL_25</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_CAL25</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_CAL25</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_CAL_25</t>
-  </si>
-  <si>
-    <t>TL_BASE_17</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_BASE17.csv</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_BASE17</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE17</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE17</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE17</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE17</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_17</t>
-  </si>
-  <si>
-    <t>Actual_ResponseMechanism_TL_BASE_17</t>
-  </si>
-  <si>
-    <t>TL_BASE_29</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_BASE29.csv</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_BASE29</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE29</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE29</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE29</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE29</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_29</t>
-  </si>
-  <si>
-    <t>Actual_ResponseMechanism_TL_BASE_29</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>TL_BASE_39</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_BASERATE_SY_GROUP1_BASE39.csv</t>
-  </si>
-  <si>
-    <t>INPUTJSON_TL_BASE39</t>
-  </si>
-  <si>
-    <t>EXPECTED_FFC_RESPONSE_TL_BASE39</t>
-  </si>
-  <si>
-    <t>Expected_wsFinalLIQDestination_TL_BASE39</t>
-  </si>
-  <si>
-    <t>ACTUAL_FFC_RESPONSE_TL_BASE39</t>
-  </si>
-  <si>
-    <t>Actual_wsFinalLIQDestination_TL_BASE39</t>
-  </si>
-  <si>
-    <t>Actual_CustomCBAPush_Response_TL_BASE_39</t>
-  </si>
-  <si>
-    <t>Actual_ResponseMechanism_TL_BASE_39</t>
-  </si>
-  <si>
-    <t>Log_FileName</t>
-  </si>
-  <si>
-    <t>fxRate.log</t>
-  </si>
-  <si>
-    <t>Holidays_Banks_20190126_1.xls,Holidays_Banks_20190126_2.xls,Holidays_Banks_20190126_1.csv,Holidays_Banks_20190126_2.csv,Holidays_Misc_20190126.xls</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_FX_NY_FX11.txt</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_FX_NY_FX12.xls</t>
-  </si>
-  <si>
-    <t>FINASTRA_CCB_FX_NY_FX13.xlsx</t>
-  </si>
-  <si>
-    <t>TemplateFilePath</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_01_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_01_Files\</t>
-  </si>
-  <si>
-    <t>Holidays_Banks_20200123_1.xlsx,Holidays_Banks_20200123_2.xlsx,Holidays_Banks_20200123_1.csv,Holidays_Banks_20200123_2.csv,Holidays_Misc_20200123.xlsx</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_08_Files\</t>
-  </si>
-  <si>
-    <t>Holidays_Banks_20200127_1.xlsx,Holidays_Banks_20200127_2.xlsx,Holidays_Banks_20200127_1.csv,Holidays_Banks_20200127_2.csv,Holidays_Misc_20200127.xlsx</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_11_Files\</t>
-  </si>
-  <si>
-    <t>Holidays_Banks_20200226_1.csv,Holidays_Banks_20200226_1.xlsx,Holidays_Banks_20200226_2.csv,Holidays_Banks_20200226_2.xlsx,Holidays_Misc_20200226.xlsx</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_15_Files\</t>
-  </si>
-  <si>
-    <t>Holidays_Banks_20200302_1.csv,Holidays_Banks_20200302_1.xlsx,Holidays_Banks_20200302_2.csv,Holidays_Banks_20200302_2.xlsx,Holidays_Misc_20200302.xlsx</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_09_Files\</t>
-  </si>
-  <si>
-    <t>Holidays_Banks_20200306_1.csv,Holidays_Banks_20200306_1.xlsx,Holidays_Banks_20200306_2.csv,Holidays_Banks_20200306_2.xlsx,Holidays_Misc_20200306.xlsx</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_16_Files\</t>
-  </si>
-  <si>
-    <t>Holidays_Banks_20200310_1.csv,Holidays_Banks_20200310_1.xlsx,Holidays_Banks_20200310_2.csv,Holidays_Banks_20200310_2.xlsx,Holidays_Misc_20200310.xlsx</t>
-  </si>
-  <si>
-    <t>Holidays_Banks_20200311_1.csv,Holidays_Banks_20200311_1.xlsx,Holidays_Banks_20200311_2.csv,Holidays_Banks_20200311_2.xlsx,Holidays_Misc_20200311.xlsx</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_17_Files\</t>
-  </si>
-  <si>
-    <t>Holidays_Banks_20200517_1.csv,Holidays_Banks_20200517_1.xlsx,Holidays_Banks_20200517_2.csv,Holidays_Banks_20200517_2.xlsx,Holidays_Misc_20200517.xlsx</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_18_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_19_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_20_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_02_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_03_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_04_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_07_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_10_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_12_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_13_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_14_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_21_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_25_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_26_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_27_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_28_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_29_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_30_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_31_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_32_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_33_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_35_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_36_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\Calendar_GSFile\TL_CAL_37_Files\</t>
-  </si>
-  <si>
-    <t>Holidays_Banks_20200318_1.csv,Holidays_Banks_20200318_1.xlsx,Holidays_Banks_20200318_2.csv,Holidays_Banks_20200318_2.xlsx,Holidays_Misc_20200318.xlsx</t>
-  </si>
-  <si>
-    <t>Holidays_Banks_20190125_2.xls,Holidays_Banks_20200125_1.csv,Holidays_Banks_20200125_2.csv,Holidays_Misc_20190125.xls</t>
-  </si>
-  <si>
-    <t>Holidays_Banks_20200119_1.csv,Holidays_Banks_20200119_1.xlsx,Holidays_Banks_20200119_2.csv,Holidays_Banks_20200119_2.xlsx,Holidays_Misc_20200119.xlsx</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_33_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_16_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_32_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_31_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_17_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_30_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_29_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_28_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_02_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_03_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_04_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_05_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_06_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_07_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_08_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_09_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_10_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_11_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_12_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_13_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_14_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_15_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_18_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_19_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_20_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_21_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_22_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_23_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_24_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_25_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_26_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_27_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_34_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_35_Files\</t>
-  </si>
-  <si>
-    <t>ATM BILAT AUD108.6M 29JUN15</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_01_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_02_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_04_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_05_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_09_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_10_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_17_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_19_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_20_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_21_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_22_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_26_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_27_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_28_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_29_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_30_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_35_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_39_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_40_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_41_Files\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\TL\BaseRates_GSFile\EU\TL_BASE_42_Files\</t>
+    <t>FINASTRA_CCB_FX_SY_FX11.txt</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX12.xls</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX13.xlsx</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX14.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX15.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX16.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX17.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX18.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX19.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX20.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX21.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX22.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX23.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX24.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX26.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX27.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX29.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX30.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX31.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX32.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX33.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX34.csv</t>
+  </si>
+  <si>
+    <t>FINASTRA_CCB_FX_SY_FX35.csv</t>
   </si>
 </sst>
 </file>
@@ -3876,7 +3876,7 @@
   </sheetPr>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -3906,7 +3906,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>838</v>
+        <v>807</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -3933,13 +3933,13 @@
         <v>8</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3950,10 +3950,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>919</v>
+        <v>853</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>76</v>
@@ -3968,7 +3968,7 @@
         <v>18</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>919</v>
+        <v>853</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>21</v>
@@ -3977,10 +3977,10 @@
         <v>19</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -3991,10 +3991,10 @@
         <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>920</v>
+        <v>854</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>77</v>
@@ -4009,7 +4009,7 @@
         <v>25</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>920</v>
+        <v>854</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>26</v>
@@ -4018,10 +4018,10 @@
         <v>27</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4032,13 +4032,13 @@
         <v>31</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>921</v>
+        <v>855</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>32</v>
@@ -4050,7 +4050,7 @@
         <v>34</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>921</v>
+        <v>855</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>35</v>
@@ -4059,10 +4059,10 @@
         <v>36</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -4073,10 +4073,10 @@
         <v>44</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>922</v>
+        <v>856</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>45</v>
@@ -4091,7 +4091,7 @@
         <v>48</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>922</v>
+        <v>856</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>49</v>
@@ -4100,10 +4100,10 @@
         <v>50</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -4114,10 +4114,10 @@
         <v>80</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>923</v>
+        <v>857</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>81</v>
@@ -4132,7 +4132,7 @@
         <v>84</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>923</v>
+        <v>857</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>85</v>
@@ -4141,10 +4141,10 @@
         <v>86</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -4152,658 +4152,658 @@
         <v>87</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>924</v>
+        <v>858</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>88</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>924</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>804</v>
+        <v>776</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>925</v>
+        <v>859</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>805</v>
+        <v>777</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>806</v>
+        <v>778</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>807</v>
+        <v>779</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>808</v>
+        <v>780</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>925</v>
+        <v>859</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>809</v>
+        <v>781</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>810</v>
+        <v>782</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>811</v>
+        <v>783</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>812</v>
+        <v>784</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>839</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>926</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>926</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>839</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="G10" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>839</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>928</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>928</v>
-      </c>
-      <c r="J11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>839</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>929</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>929</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>930</v>
+        <v>864</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>930</v>
+        <v>864</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>931</v>
+        <v>865</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>931</v>
+        <v>865</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>932</v>
+        <v>866</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>932</v>
+        <v>866</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>813</v>
+        <v>785</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>814</v>
+        <v>786</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>815</v>
+        <v>787</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>816</v>
+        <v>788</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>817</v>
+        <v>789</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>818</v>
+        <v>790</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>819</v>
+        <v>791</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>820</v>
+        <v>792</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>821</v>
+        <v>793</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>934</v>
+        <v>868</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>934</v>
+        <v>868</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>935</v>
+        <v>869</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>721</v>
+        <v>695</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>724</v>
+        <v>698</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>935</v>
+        <v>869</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>725</v>
+        <v>699</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>726</v>
+        <v>700</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>727</v>
+        <v>701</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>728</v>
+        <v>702</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>822</v>
+        <v>794</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>823</v>
+        <v>795</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>936</v>
+        <v>870</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>824</v>
+        <v>796</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>825</v>
+        <v>797</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>826</v>
+        <v>798</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>827</v>
+        <v>799</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>936</v>
+        <v>870</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>828</v>
+        <v>800</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>829</v>
+        <v>801</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>830</v>
+        <v>802</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>831</v>
+        <v>803</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>937</v>
+        <v>871</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>590</v>
+        <v>564</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>591</v>
+        <v>565</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>937</v>
+        <v>871</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>597</v>
+        <v>571</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>598</v>
+        <v>572</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>938</v>
+        <v>872</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>600</v>
+        <v>574</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>938</v>
+        <v>872</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>604</v>
+        <v>578</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>918</v>
+        <v>852</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>939</v>
+        <v>873</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>939</v>
+        <v>873</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>616</v>
+        <v>590</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="N22" s="5"/>
     </row>
@@ -4839,9 +4839,9 @@
   <sheetPr codeName="FXRates_Fields"/>
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4871,7 +4871,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>838</v>
+        <v>807</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -4898,10 +4898,10 @@
         <v>8</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>9</v>
@@ -4910,7 +4910,7 @@
         <v>93</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>832</v>
+        <v>804</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -4921,13 +4921,13 @@
         <v>38</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>841</v>
+        <v>874</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>102</v>
+        <v>910</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>39</v>
@@ -4939,7 +4939,7 @@
         <v>42</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>841</v>
+        <v>874</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>101</v>
@@ -4948,16 +4948,16 @@
         <v>41</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -4968,13 +4968,13 @@
         <v>53</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>892</v>
+        <v>875</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>54</v>
@@ -4986,7 +4986,7 @@
         <v>56</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>892</v>
+        <v>875</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>57</v>
@@ -4995,10 +4995,10 @@
         <v>58</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>12</v>
@@ -5015,13 +5015,13 @@
         <v>59</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>893</v>
+        <v>876</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>61</v>
@@ -5033,7 +5033,7 @@
         <v>67</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>893</v>
+        <v>876</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>63</v>
@@ -5042,10 +5042,10 @@
         <v>65</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>12</v>
@@ -5062,13 +5062,13 @@
         <v>60</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>180</v>
+        <v>912</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>62</v>
@@ -5080,7 +5080,7 @@
         <v>68</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>64</v>
@@ -5089,16 +5089,16 @@
         <v>66</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -5109,13 +5109,13 @@
         <v>69</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>895</v>
+        <v>878</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>183</v>
+        <v>913</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>70</v>
@@ -5127,7 +5127,7 @@
         <v>73</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>895</v>
+        <v>878</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>74</v>
@@ -5136,16 +5136,16 @@
         <v>75</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -5156,13 +5156,13 @@
         <v>95</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>186</v>
+        <v>914</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>96</v>
@@ -5174,7 +5174,7 @@
         <v>98</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>99</v>
@@ -5183,16 +5183,16 @@
         <v>100</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -5200,46 +5200,46 @@
         <v>52</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>897</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>897</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -5247,46 +5247,46 @@
         <v>78</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>898</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>757</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>898</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>204</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -5294,46 +5294,46 @@
         <v>79</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>899</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>899</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -5341,46 +5341,46 @@
         <v>87</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>900</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>900</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -5388,46 +5388,46 @@
         <v>89</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>901</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>901</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -5435,46 +5435,46 @@
         <v>90</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>902</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>902</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -5482,46 +5482,46 @@
         <v>91</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>903</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="M14" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>903</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -5529,560 +5529,560 @@
         <v>92</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="M15" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>905</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="M16" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>905</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="M17" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>885</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>885</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>888</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>888</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>285</v>
+        <v>924</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>294</v>
+        <v>925</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>833</v>
+        <v>805</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>908</v>
+        <v>893</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>303</v>
+        <v>926</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>908</v>
+        <v>893</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>312</v>
+        <v>927</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>321</v>
+        <v>928</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>331</v>
+        <v>929</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>341</v>
+        <v>930</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>12</v>
@@ -6093,472 +6093,472 @@
     </row>
     <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>914</v>
+        <v>899</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>360</v>
+        <v>931</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>914</v>
+        <v>899</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>370</v>
+        <v>932</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>380</v>
+        <v>909</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>390</v>
+        <v>933</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>400</v>
+        <v>934</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>887</v>
+        <v>904</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>582</v>
+        <v>935</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>887</v>
+        <v>904</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="N32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>886</v>
+        <v>905</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>583</v>
+        <v>936</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>886</v>
+        <v>905</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>884</v>
+        <v>906</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>584</v>
+        <v>937</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>884</v>
+        <v>906</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>585</v>
+        <v>938</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="N35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>586</v>
+        <v>939</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>173</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -6566,41 +6566,41 @@
     <hyperlink ref="D23:D31" r:id="rId1" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_22_Files\" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="D32:D34" r:id="rId2" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_31_Files\" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D34" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D17" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D33" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D32" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D18" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D31" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D30" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D29" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D2" r:id="rId4" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_01_Files\" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D34" r:id="rId5" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_33_Files\" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D17" r:id="rId6" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_16_Files\" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D33" r:id="rId7" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_32_Files\" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D32" r:id="rId8" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_31_Files\" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D18" r:id="rId9" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_17_Files\" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D31" r:id="rId10" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_30_Files\" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D30" r:id="rId11" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_29_Files\" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D29" r:id="rId12" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_28_Files\" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
     <hyperlink ref="C3:C36" r:id="rId13" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D3" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D4" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D5:D16" r:id="rId16" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_04_Files\" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="D22:D28" r:id="rId17" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_21_Files\" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="D22" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="D35" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="D36" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="I23:I31" r:id="rId21" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_22_Files\" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="I32:I34" r:id="rId22" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_31_Files\" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="I2" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="I34" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="I17" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="I33" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="I32" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="I18" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="I31" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="I30" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="I29" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="I3" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="I4" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="I5:I16" r:id="rId34" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_04_Files\" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="I22:I28" r:id="rId35" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_21_Files\" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="I22" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="I35" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="I36" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="D4" r:id="rId14" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_03_Files\" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D5:D16" r:id="rId15" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_04_Files\" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D22:D28" r:id="rId16" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_21_Files\" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D22" r:id="rId17" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_21_Files\" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D35" r:id="rId18" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_34_Files\" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D36" r:id="rId19" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_35_Files\" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="I23:I31" r:id="rId20" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_22_Files\" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="I32:I34" r:id="rId21" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_31_Files\" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="I2" r:id="rId22" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_01_Files\" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="I34" r:id="rId23" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_33_Files\" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="I17" r:id="rId24" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_16_Files\" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="I33" r:id="rId25" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_32_Files\" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="I32" r:id="rId26" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_31_Files\" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="I18" r:id="rId27" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_17_Files\" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="I31" r:id="rId28" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_30_Files\" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="I30" r:id="rId29" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_29_Files\" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="I29" r:id="rId30" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_28_Files\" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="I3" r:id="rId31" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_02_Files\" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="I4" r:id="rId32" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_03_Files\" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="I5:I16" r:id="rId33" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_04_Files\" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="I22:I28" r:id="rId34" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_21_Files\" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="I22" r:id="rId35" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_21_Files\" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="I35" r:id="rId36" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_34_Files\" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="I36" r:id="rId37" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_35_Files\" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="D3" r:id="rId38" display="\DataSet\Integration_DataSet\TL\FXRates_GSFile\AU\TL_FX_02_Files\" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -6646,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -6658,7 +6658,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -6670,10 +6670,10 @@
         <v>8</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6681,37 +6681,37 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>842</v>
+        <v>810</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>843</v>
+        <v>811</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>842</v>
+        <v>810</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="M2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6719,40 +6719,40 @@
         <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>860</v>
+        <v>828</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>635</v>
+        <v>609</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>860</v>
+        <v>828</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6760,40 +6760,40 @@
         <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>684</v>
+        <v>658</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>861</v>
+        <v>829</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>692</v>
+        <v>666</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>686</v>
+        <v>660</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>861</v>
+        <v>829</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>690</v>
+        <v>664</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6801,40 +6801,40 @@
         <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>693</v>
+        <v>667</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>862</v>
+        <v>830</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>701</v>
+        <v>675</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>694</v>
+        <v>668</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>696</v>
+        <v>670</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>697</v>
+        <v>671</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>862</v>
+        <v>830</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>698</v>
+        <v>672</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>699</v>
+        <v>673</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>700</v>
+        <v>674</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>700</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6842,40 +6842,40 @@
         <v>52</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>636</v>
+        <v>610</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>863</v>
+        <v>831</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>640</v>
+        <v>614</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>641</v>
+        <v>615</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>863</v>
+        <v>831</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6883,40 +6883,40 @@
         <v>78</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>844</v>
+        <v>812</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>845</v>
+        <v>813</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>624</v>
+        <v>598</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>642</v>
+        <v>616</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>844</v>
+        <v>812</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>625</v>
+        <v>599</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>626</v>
+        <v>600</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6924,40 +6924,40 @@
         <v>79</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>627</v>
+        <v>601</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>850</v>
+        <v>818</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>851</v>
+        <v>819</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>630</v>
+        <v>604</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>850</v>
+        <v>818</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -6965,40 +6965,40 @@
         <v>87</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>864</v>
+        <v>832</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>864</v>
+        <v>832</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>654</v>
+        <v>628</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -7006,40 +7006,40 @@
         <v>89</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>846</v>
+        <v>814</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>847</v>
+        <v>815</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>657</v>
+        <v>631</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>846</v>
+        <v>814</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -7047,40 +7047,40 @@
         <v>90</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>865</v>
+        <v>833</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>761</v>
+        <v>733</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>865</v>
+        <v>833</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>767</v>
+        <v>739</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>768</v>
+        <v>740</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>768</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -7088,40 +7088,40 @@
         <v>91</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>769</v>
+        <v>741</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>866</v>
+        <v>834</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>770</v>
+        <v>742</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>772</v>
+        <v>744</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>773</v>
+        <v>745</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>774</v>
+        <v>746</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>866</v>
+        <v>834</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>775</v>
+        <v>747</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -7129,157 +7129,157 @@
         <v>92</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>867</v>
+        <v>835</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>713</v>
+        <v>687</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>714</v>
+        <v>688</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>715</v>
+        <v>689</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>716</v>
+        <v>690</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>867</v>
+        <v>835</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>717</v>
+        <v>691</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>848</v>
+        <v>816</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>849</v>
+        <v>817</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="9" t="s">
-        <v>848</v>
+        <v>816</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>852</v>
+        <v>820</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>853</v>
+        <v>821</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="9" t="s">
-        <v>852</v>
+        <v>820</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>852</v>
+        <v>820</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>854</v>
+        <v>822</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="9" t="s">
-        <v>852</v>
+        <v>820</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -7287,40 +7287,40 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>855</v>
+        <v>823</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>856</v>
+        <v>824</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>855</v>
+        <v>823</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -7328,38 +7328,38 @@
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>857</v>
+        <v>825</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>881</v>
+        <v>849</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="9" t="s">
-        <v>857</v>
+        <v>825</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -7367,604 +7367,604 @@
         <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>858</v>
+        <v>826</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>883</v>
+        <v>851</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="9" t="s">
-        <v>858</v>
+        <v>826</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>859</v>
+        <v>827</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>618</v>
+        <v>592</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="9" t="s">
-        <v>859</v>
+        <v>827</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>868</v>
+        <v>836</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>618</v>
+        <v>592</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="9" t="s">
-        <v>868</v>
+        <v>836</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>796</v>
+        <v>768</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>869</v>
+        <v>837</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>882</v>
+        <v>850</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>797</v>
+        <v>769</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>798</v>
+        <v>770</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>799</v>
+        <v>771</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>800</v>
+        <v>772</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>869</v>
+        <v>837</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>801</v>
+        <v>773</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>802</v>
+        <v>774</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>803</v>
+        <v>775</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>803</v>
+        <v>775</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>870</v>
+        <v>838</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>834</v>
+        <v>806</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>659</v>
+        <v>633</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>660</v>
+        <v>634</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>662</v>
+        <v>636</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>870</v>
+        <v>838</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>665</v>
+        <v>639</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>665</v>
+        <v>639</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>666</v>
+        <v>640</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>871</v>
+        <v>839</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>669</v>
+        <v>643</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>670</v>
+        <v>644</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>672</v>
+        <v>646</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>871</v>
+        <v>839</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>674</v>
+        <v>648</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>667</v>
+        <v>641</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>872</v>
+        <v>840</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>676</v>
+        <v>650</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>677</v>
+        <v>651</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>678</v>
+        <v>652</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>872</v>
+        <v>840</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>683</v>
+        <v>657</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>729</v>
+        <v>703</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>873</v>
+        <v>841</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>730</v>
+        <v>704</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>731</v>
+        <v>705</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>732</v>
+        <v>706</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>734</v>
+        <v>708</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>873</v>
+        <v>841</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>735</v>
+        <v>709</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>736</v>
+        <v>710</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>737</v>
+        <v>711</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>737</v>
+        <v>711</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>738</v>
+        <v>712</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>874</v>
+        <v>842</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>739</v>
+        <v>713</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>741</v>
+        <v>715</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>742</v>
+        <v>716</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>743</v>
+        <v>717</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>874</v>
+        <v>842</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>744</v>
+        <v>718</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>745</v>
+        <v>719</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>747</v>
+        <v>721</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>875</v>
+        <v>843</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>748</v>
+        <v>722</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>749</v>
+        <v>723</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>750</v>
+        <v>724</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>751</v>
+        <v>725</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>752</v>
+        <v>726</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>875</v>
+        <v>843</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>753</v>
+        <v>727</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>754</v>
+        <v>728</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>755</v>
+        <v>729</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>755</v>
+        <v>729</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>778</v>
+        <v>750</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>876</v>
+        <v>844</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>779</v>
+        <v>751</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>780</v>
+        <v>752</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>781</v>
+        <v>753</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>782</v>
+        <v>754</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>783</v>
+        <v>755</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>876</v>
+        <v>844</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>787</v>
+        <v>759</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>877</v>
+        <v>845</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>788</v>
+        <v>760</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>789</v>
+        <v>761</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>790</v>
+        <v>762</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>791</v>
+        <v>763</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>792</v>
+        <v>764</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>877</v>
+        <v>845</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>793</v>
+        <v>765</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>794</v>
+        <v>766</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>795</v>
+        <v>767</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>702</v>
+        <v>676</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>878</v>
+        <v>846</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>703</v>
+        <v>677</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>705</v>
+        <v>679</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>878</v>
+        <v>846</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>707</v>
+        <v>681</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>708</v>
+        <v>682</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>709</v>
+        <v>683</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>709</v>
+        <v>683</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>879</v>
+        <v>847</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="9" t="s">
-        <v>879</v>
+        <v>847</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>880</v>
+        <v>848</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="9" t="s">
-        <v>880</v>
+        <v>848</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/Integration_DataSet/TL/TL_Data_Set_EU.xlsx
+++ b/DataSet/Integration_DataSet/TL/TL_Data_Set_EU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\TL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C69E9E0-2820-442A-8703-C350A2084D82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4251131E-7276-4011-81DA-B813D39AEEED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="941">
   <si>
     <t>rowid</t>
   </si>
@@ -2900,6 +2900,9 @@
   </si>
   <si>
     <t>FINASTRA_CCB_FX_SY_FX35.csv</t>
+  </si>
+  <si>
+    <t>JB</t>
   </si>
 </sst>
 </file>
@@ -4839,9 +4842,9 @@
   <sheetPr codeName="FXRates_Fields"/>
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5239,7 +5242,7 @@
         <v>12</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>911</v>
+        <v>940</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
